--- a/Excel/Student_IN_subADMIN_SIDE_for_assign_subject.xlsx
+++ b/Excel/Student_IN_subADMIN_SIDE_for_assign_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAS_MSU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B042D2D9-F2F3-42B6-A57F-93A75B0D267B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B8277-5056-4B28-8DB9-6571D9E97F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{F0105E79-A26A-4EB7-BA36-4D828AA35E30}"/>
+    <workbookView xWindow="1905" yWindow="2355" windowWidth="15375" windowHeight="7995" xr2:uid="{F0105E79-A26A-4EB7-BA36-4D828AA35E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D87E94-6328-43D9-9EAF-0E4EA8B2FC47}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -399,12 +402,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2017033800105310</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20170335050505</v>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
